--- a/WB_Sensitivity.xlsx
+++ b/WB_Sensitivity.xlsx
@@ -1,52 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Dropbox\(2) Graduate\Courses\Fall 2019\ECI 243A\Design Project\CODE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D51F1-D545-40E9-95AB-034DAE0A71C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Extrapolated</t>
-  </si>
-  <si>
-    <t>Conservative</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +47,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -367,72 +340,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Extrapolated</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Conservative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>6.6</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>46986</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>66886</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="B3" t="n">
         <v>52642</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>74806</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6.7999999999999989</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.799999999999999</v>
+      </c>
+      <c r="B4" t="n">
         <v>58611</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>83607</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>6.8999999999999986</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.899999999999999</v>
+      </c>
+      <c r="B5" t="n">
         <v>65348</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>94755</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.999999999999998</v>
+      </c>
+      <c r="B6" t="n">
+        <v>73835</v>
+      </c>
+      <c r="C6" t="n">
+        <v>105283</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.099999999999998</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>118444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.199999999999998</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>132216</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="B9" t="n">
+        <v>103369</v>
+      </c>
+      <c r="C9" t="n">
+        <v>145777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.399999999999997</v>
+      </c>
+      <c r="B10" t="n">
+        <v>116026</v>
+      </c>
+      <c r="C10" t="n">
+        <v>162437</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.499999999999996</v>
+      </c>
+      <c r="B11" t="n">
+        <v>129211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>183396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7.599999999999996</v>
+      </c>
+      <c r="B12" t="n">
+        <v>142132</v>
+      </c>
+      <c r="C12" t="n">
+        <v>203046</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7.699999999999996</v>
+      </c>
+      <c r="B13" t="n">
+        <v>162437</v>
+      </c>
+      <c r="C13" t="n">
+        <v>227412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7.799999999999995</v>
+      </c>
+      <c r="B14" t="n">
+        <v>177665</v>
+      </c>
+      <c r="C14" t="n">
+        <v>258422</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7.899999999999995</v>
+      </c>
+      <c r="B15" t="n">
+        <v>203046</v>
+      </c>
+      <c r="C15" t="n">
+        <v>284264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7.999999999999995</v>
+      </c>
+      <c r="B16" t="n">
+        <v>227412</v>
+      </c>
+      <c r="C16" t="n">
+        <v>315849</v>
       </c>
     </row>
   </sheetData>

--- a/WB_Sensitivity.xlsx
+++ b/WB_Sensitivity.xlsx
@@ -375,10 +375,10 @@
         <v>6.6</v>
       </c>
       <c r="B2" t="n">
-        <v>46986</v>
+        <v>117296</v>
       </c>
       <c r="C2" t="n">
-        <v>66886</v>
+        <v>160863</v>
       </c>
     </row>
     <row r="3">
@@ -386,10 +386,10 @@
         <v>6.699999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>52642</v>
+        <v>125116</v>
       </c>
       <c r="C3" t="n">
-        <v>74806</v>
+        <v>170612</v>
       </c>
     </row>
     <row r="4">
@@ -397,10 +397,10 @@
         <v>6.799999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>58611</v>
+        <v>134052</v>
       </c>
       <c r="C4" t="n">
-        <v>83607</v>
+        <v>187673</v>
       </c>
     </row>
     <row r="5">
@@ -408,10 +408,10 @@
         <v>6.899999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>65348</v>
+        <v>144364</v>
       </c>
       <c r="C5" t="n">
-        <v>94755</v>
+        <v>201078</v>
       </c>
     </row>
     <row r="6">
@@ -419,10 +419,10 @@
         <v>6.999999999999998</v>
       </c>
       <c r="B6" t="n">
-        <v>73835</v>
+        <v>156394</v>
       </c>
       <c r="C6" t="n">
-        <v>105283</v>
+        <v>216546</v>
       </c>
     </row>
     <row r="7">
@@ -430,10 +430,10 @@
         <v>7.099999999999998</v>
       </c>
       <c r="B7" t="n">
-        <v>82395</v>
+        <v>165594</v>
       </c>
       <c r="C7" t="n">
-        <v>118444</v>
+        <v>225208</v>
       </c>
     </row>
     <row r="8">
@@ -441,10 +441,10 @@
         <v>7.199999999999998</v>
       </c>
       <c r="B8" t="n">
-        <v>91698</v>
+        <v>175944</v>
       </c>
       <c r="C8" t="n">
-        <v>132216</v>
+        <v>244791</v>
       </c>
     </row>
     <row r="9">
@@ -452,10 +452,10 @@
         <v>7.299999999999997</v>
       </c>
       <c r="B9" t="n">
-        <v>103369</v>
+        <v>194145</v>
       </c>
       <c r="C9" t="n">
-        <v>145777</v>
+        <v>268105</v>
       </c>
     </row>
     <row r="10">
@@ -463,10 +463,10 @@
         <v>7.399999999999997</v>
       </c>
       <c r="B10" t="n">
-        <v>116026</v>
+        <v>208526</v>
       </c>
       <c r="C10" t="n">
-        <v>162437</v>
+        <v>281510</v>
       </c>
     </row>
     <row r="11">
@@ -474,10 +474,10 @@
         <v>7.499999999999996</v>
       </c>
       <c r="B11" t="n">
-        <v>129211</v>
+        <v>216546</v>
       </c>
       <c r="C11" t="n">
-        <v>183396</v>
+        <v>296326</v>
       </c>
     </row>
     <row r="12">
@@ -485,10 +485,10 @@
         <v>7.599999999999996</v>
       </c>
       <c r="B12" t="n">
-        <v>142132</v>
+        <v>234592</v>
       </c>
       <c r="C12" t="n">
-        <v>203046</v>
+        <v>331188</v>
       </c>
     </row>
     <row r="13">
@@ -496,10 +496,10 @@
         <v>7.699999999999996</v>
       </c>
       <c r="B13" t="n">
-        <v>162437</v>
+        <v>255918</v>
       </c>
       <c r="C13" t="n">
-        <v>227412</v>
+        <v>351887</v>
       </c>
     </row>
     <row r="14">
@@ -507,10 +507,10 @@
         <v>7.799999999999995</v>
       </c>
       <c r="B14" t="n">
-        <v>177665</v>
+        <v>268105</v>
       </c>
       <c r="C14" t="n">
-        <v>258422</v>
+        <v>375347</v>
       </c>
     </row>
     <row r="15">
@@ -518,10 +518,10 @@
         <v>7.899999999999995</v>
       </c>
       <c r="B15" t="n">
-        <v>203046</v>
+        <v>296326</v>
       </c>
       <c r="C15" t="n">
-        <v>284264</v>
+        <v>402157</v>
       </c>
     </row>
     <row r="16">
@@ -529,10 +529,10 @@
         <v>7.999999999999995</v>
       </c>
       <c r="B16" t="n">
-        <v>227412</v>
+        <v>312789</v>
       </c>
       <c r="C16" t="n">
-        <v>315849</v>
+        <v>433092</v>
       </c>
     </row>
   </sheetData>

--- a/WB_Sensitivity.xlsx
+++ b/WB_Sensitivity.xlsx
@@ -375,10 +375,10 @@
         <v>6.6</v>
       </c>
       <c r="B2" t="n">
-        <v>117296</v>
+        <v>72187</v>
       </c>
       <c r="C2" t="n">
-        <v>160863</v>
+        <v>103125</v>
       </c>
     </row>
     <row r="3">
@@ -386,10 +386,10 @@
         <v>6.699999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>125116</v>
+        <v>80958</v>
       </c>
       <c r="C3" t="n">
-        <v>170612</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="4">
@@ -397,10 +397,10 @@
         <v>6.799999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>134052</v>
+        <v>90234</v>
       </c>
       <c r="C4" t="n">
-        <v>187673</v>
+        <v>129291</v>
       </c>
     </row>
     <row r="5">
@@ -408,10 +408,10 @@
         <v>6.899999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144364</v>
+        <v>100726</v>
       </c>
       <c r="C5" t="n">
-        <v>201078</v>
+        <v>144375</v>
       </c>
     </row>
     <row r="6">
@@ -419,10 +419,10 @@
         <v>6.999999999999998</v>
       </c>
       <c r="B6" t="n">
-        <v>156394</v>
+        <v>112500</v>
       </c>
       <c r="C6" t="n">
-        <v>216546</v>
+        <v>160416</v>
       </c>
     </row>
     <row r="7">
@@ -430,10 +430,10 @@
         <v>7.099999999999998</v>
       </c>
       <c r="B7" t="n">
-        <v>165594</v>
+        <v>125543</v>
       </c>
       <c r="C7" t="n">
-        <v>225208</v>
+        <v>180468</v>
       </c>
     </row>
     <row r="8">
@@ -441,10 +441,10 @@
         <v>7.199999999999998</v>
       </c>
       <c r="B8" t="n">
-        <v>175944</v>
+        <v>142008</v>
       </c>
       <c r="C8" t="n">
-        <v>244791</v>
+        <v>201453</v>
       </c>
     </row>
     <row r="9">
@@ -452,10 +452,10 @@
         <v>7.299999999999997</v>
       </c>
       <c r="B9" t="n">
-        <v>194145</v>
+        <v>157499</v>
       </c>
       <c r="C9" t="n">
-        <v>268105</v>
+        <v>227960</v>
       </c>
     </row>
     <row r="10">
@@ -463,10 +463,10 @@
         <v>7.399999999999997</v>
       </c>
       <c r="B10" t="n">
-        <v>208526</v>
+        <v>176785</v>
       </c>
       <c r="C10" t="n">
-        <v>281510</v>
+        <v>254779</v>
       </c>
     </row>
     <row r="11">
@@ -474,10 +474,10 @@
         <v>7.499999999999996</v>
       </c>
       <c r="B11" t="n">
-        <v>216546</v>
+        <v>196874</v>
       </c>
       <c r="C11" t="n">
-        <v>296326</v>
+        <v>279435</v>
       </c>
     </row>
     <row r="12">
@@ -485,10 +485,10 @@
         <v>7.599999999999996</v>
       </c>
       <c r="B12" t="n">
-        <v>234592</v>
+        <v>222115</v>
       </c>
       <c r="C12" t="n">
-        <v>331188</v>
+        <v>320832</v>
       </c>
     </row>
     <row r="13">
@@ -496,10 +496,10 @@
         <v>7.699999999999996</v>
       </c>
       <c r="B13" t="n">
-        <v>255918</v>
+        <v>247499</v>
       </c>
       <c r="C13" t="n">
-        <v>351887</v>
+        <v>360936</v>
       </c>
     </row>
     <row r="14">
@@ -507,10 +507,10 @@
         <v>7.799999999999995</v>
       </c>
       <c r="B14" t="n">
-        <v>268105</v>
+        <v>279435</v>
       </c>
       <c r="C14" t="n">
-        <v>375347</v>
+        <v>393749</v>
       </c>
     </row>
     <row r="15">
@@ -518,10 +518,10 @@
         <v>7.899999999999995</v>
       </c>
       <c r="B15" t="n">
-        <v>296326</v>
+        <v>309374</v>
       </c>
       <c r="C15" t="n">
-        <v>402157</v>
+        <v>433124</v>
       </c>
     </row>
     <row r="16">
@@ -529,10 +529,10 @@
         <v>7.999999999999995</v>
       </c>
       <c r="B16" t="n">
-        <v>312789</v>
+        <v>346499</v>
       </c>
       <c r="C16" t="n">
-        <v>433092</v>
+        <v>509557</v>
       </c>
     </row>
   </sheetData>
